--- a/test_case/Authentication/login/login_compatibility_testing.xlsx
+++ b/test_case/Authentication/login/login_compatibility_testing.xlsx
@@ -99,6 +99,9 @@
     <t>Mobile UI responsive</t>
   </si>
   <si>
+    <t>TC-LC-008</t>
+  </si>
+  <si>
     <t>Valid credentials</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t>User redirected to dashboard</t>
   </si>
   <si>
+    <t>TC-LC-009</t>
+  </si>
+  <si>
     <t>Login test on Firefox</t>
   </si>
   <si>
@@ -122,6 +128,9 @@
   </si>
   <si>
     <t>Login successful</t>
+  </si>
+  <si>
+    <t>TC-LC-010</t>
   </si>
   <si>
     <t>Login on Mobile</t>
@@ -150,7 +159,6 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 2.Navigate to Login "</t>
@@ -161,7 +169,6 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>https://ai-quizwhiz.zluck.com</t>
     </r>
@@ -170,7 +177,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>"</t>
@@ -196,21 +202,12 @@
       <t>"https://ai-quizwhiz.zluck.com"</t>
     </r>
   </si>
-  <si>
-    <t>TC-LC-004</t>
-  </si>
-  <si>
-    <t>TC-LC-006</t>
-  </si>
-  <si>
-    <t>TC-LC-007</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -221,7 +218,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,21 +225,18 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -277,13 +270,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -661,7 +647,7 @@
   <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -676,7 +662,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -726,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>11</v>
@@ -768,7 +754,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>15</v>
@@ -801,7 +787,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="17">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>9</v>
@@ -840,10 +826,10 @@
     </row>
     <row r="6" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B6" s="17">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>21</v>
@@ -882,22 +868,22 @@
     </row>
     <row r="7" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B7" s="17">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>12</v>
@@ -924,22 +910,22 @@
     </row>
     <row r="8" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B8" s="17">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>12</v>
@@ -966,22 +952,22 @@
     </row>
     <row r="9" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B9" s="17">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>12</v>

--- a/test_case/Authentication/login/login_compatibility_testing.xlsx
+++ b/test_case/Authentication/login/login_compatibility_testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ai-quizwhiz.zluck.com-pnt-b24\test_case\Authentication\login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\my github project\ai-quizwhiz.zluck.com-pnt-b24\test_case\Authentication\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -355,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -385,22 +385,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -646,8 +631,8 @@
   </sheetPr>
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -661,16 +646,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -699,354 +684,382 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="12">
         <v>101</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="12">
         <v>102</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
     <row r="5" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="12">
         <v>104</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
     </row>
     <row r="6" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="12">
         <v>106</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
     </row>
     <row r="7" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="12">
         <v>110</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
     </row>
     <row r="8" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="12">
         <v>111</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
     </row>
     <row r="9" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="12">
         <v>112</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-    </row>
-    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-    </row>
-    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+    </row>
+    <row r="10" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="12">
+        <v>111</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+    </row>
+    <row r="11" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="12">
+        <v>112</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
